--- a/doc/RA.xlsx
+++ b/doc/RA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Web service</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Xem diem thi()</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>cotroller</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>raw data</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>Service</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1371,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>92445</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>35295</xdr:rowOff>
+      <xdr:rowOff>25770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1768,6 +1786,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flowchart: Magnetic Disk 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039475" y="1647825"/>
+          <a:ext cx="2238375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Database (Oracle, PostgreSQL, Mongodb, ....)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2070,16 +2147,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I5:AP33"/>
+  <dimension ref="I5:BJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+      <selection activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="9:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2103,7 +2180,7 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P7" s="4"/>
       <c r="Q7" s="5" t="s">
         <v>0</v>
@@ -2131,7 +2208,7 @@
       <c r="AM7" s="5"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="9:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -2155,7 +2232,7 @@
       <c r="AM8" s="5"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -2181,8 +2258,11 @@
       <c r="AP9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="9:42" x14ac:dyDescent="0.25">
+      <c r="BJ9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="9:62" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2293,7 @@
       <c r="AM10" s="5"/>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -2239,7 +2319,7 @@
       <c r="AM11" s="5"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -2264,7 +2344,7 @@
       <c r="AM12" s="5"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2290,7 +2370,7 @@
       <c r="AM13" s="5"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="9:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:62" x14ac:dyDescent="0.25">
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2316,7 +2396,7 @@
       <c r="AM14" s="5"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="9:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -2610,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:AT37"/>
+  <dimension ref="D5:BM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE27" sqref="BE27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,8 +2701,8 @@
     <col min="5" max="5" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="10:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q6" s="1"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2646,7 +2726,7 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="3"/>
     </row>
-    <row r="7" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q7" s="4"/>
       <c r="R7" s="5" t="s">
         <v>0</v>
@@ -2674,7 +2754,7 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="10:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="10:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q8" s="7"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -2701,7 +2781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -2734,7 +2814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -2759,8 +2839,11 @@
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="6"/>
-    </row>
-    <row r="11" spans="10:46" x14ac:dyDescent="0.25">
+      <c r="BL10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -2785,8 +2868,11 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="6"/>
-    </row>
-    <row r="12" spans="10:46" x14ac:dyDescent="0.25">
+      <c r="BL11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2811,7 +2897,7 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="6"/>
     </row>
-    <row r="13" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:64" x14ac:dyDescent="0.25">
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -2837,7 +2923,7 @@
       <c r="AP13" s="5"/>
       <c r="AQ13" s="6"/>
     </row>
-    <row r="14" spans="10:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2952,7 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="6"/>
     </row>
-    <row r="15" spans="10:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="10:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -2890,13 +2976,146 @@
       <c r="AP15" s="8"/>
       <c r="AQ15" s="9"/>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="4:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3"/>
+      <c r="AO17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="3"/>
+      <c r="BM17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:65" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="6"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="3"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="6"/>
+    </row>
+    <row r="19" spans="4:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="6"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="9"/>
+    </row>
+    <row r="20" spans="4:65" x14ac:dyDescent="0.25">
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="6"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="4:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="9"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="9"/>
+    </row>
+    <row r="24" spans="4:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2920,7 +3139,7 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="3"/>
     </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q26" s="4"/>
       <c r="R26" s="5" t="s">
         <v>0</v>
@@ -2948,7 +3167,7 @@
       <c r="AP26" s="5"/>
       <c r="AQ26" s="6"/>
     </row>
-    <row r="27" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="7"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -2972,7 +3191,7 @@
       <c r="AP27" s="5"/>
       <c r="AQ27" s="6"/>
     </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:65" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>18</v>
       </c>
@@ -3002,7 +3221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -3028,7 +3247,7 @@
       <c r="AP29" s="5"/>
       <c r="AQ29" s="6"/>
     </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -3054,7 +3273,7 @@
       <c r="AP30" s="5"/>
       <c r="AQ30" s="6"/>
     </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3079,7 +3298,7 @@
       <c r="AP31" s="5"/>
       <c r="AQ31" s="6"/>
     </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:65" x14ac:dyDescent="0.25">
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
